--- a/Data/BD Autom Recomendaciones.xlsx
+++ b/Data/BD Autom Recomendaciones.xlsx
@@ -775,10 +775,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SUR-0119-20</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -790,15 +788,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ECH-228</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ECH-03</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -877,7 +871,7 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>DS92</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -904,7 +898,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -942,10 +936,8 @@
       <c r="BO2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SUR-0583-20</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -957,15 +949,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>E-638</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1046,7 +1034,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1093,10 +1081,8 @@
       <c r="BO3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SUR-0584-20</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1108,15 +1094,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E-952</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1197,7 +1179,7 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1226,7 +1208,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1264,10 +1246,8 @@
       <c r="BO4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SUR-0585-20</t>
-        </is>
+      <c r="A5" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1279,15 +1259,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>E-1127</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E-11</t>
-        </is>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1366,7 +1342,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1413,10 +1389,8 @@
       <c r="BO5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SUR-0587-20</t>
-        </is>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1428,15 +1402,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>E-438</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>E-020</t>
-        </is>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1517,7 +1487,7 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1564,10 +1534,8 @@
       <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SUR-0613-20</t>
-        </is>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1579,13 +1547,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CL-2</t>
-        </is>
+      <c r="D7" t="n">
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1660,7 +1626,7 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1689,7 +1655,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1729,10 +1695,8 @@
       <c r="BO7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SUR-0614-20</t>
-        </is>
+      <c r="A8" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1744,13 +1708,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS-2267</t>
-        </is>
+      <c r="D8" t="n">
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1827,7 +1789,7 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1856,7 +1818,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1894,10 +1856,8 @@
       <c r="BO8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SUR-0623-20</t>
-        </is>
+      <c r="A9" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1909,15 +1869,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LP-167</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LP-8</t>
-        </is>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1988,7 +1944,7 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2035,10 +1991,8 @@
       <c r="BO9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SUR-0633-20</t>
-        </is>
+      <c r="A10" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2050,15 +2004,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>G-558[00]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>G-013</t>
-        </is>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2119,7 +2069,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2157,7 +2107,7 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2186,7 +2136,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -2224,10 +2174,8 @@
       <c r="BO10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SUR-0634-20</t>
-        </is>
+      <c r="A11" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2239,15 +2187,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>E-951</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E-005</t>
-        </is>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2326,7 +2270,7 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2355,7 +2299,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -2393,10 +2337,8 @@
       <c r="BO11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SUR-0635-20</t>
-        </is>
+      <c r="A12" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2408,15 +2350,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>G-514</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>G-012</t>
-        </is>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2477,7 +2415,7 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2515,7 +2453,7 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2544,7 +2482,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2582,10 +2520,8 @@
       <c r="BO12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SUR-0587-20</t>
-        </is>
+      <c r="A13" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2597,15 +2533,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>E-438</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>E-020</t>
-        </is>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2684,7 +2616,7 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2731,10 +2663,8 @@
       <c r="BO13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SUR-0633-20</t>
-        </is>
+      <c r="A14" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2746,15 +2676,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>G-558[00]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>G-013</t>
-        </is>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2815,7 +2741,7 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2853,7 +2779,7 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -2882,7 +2808,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2920,10 +2846,8 @@
       <c r="BO14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SUR-0648-20</t>
-        </is>
+      <c r="A15" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2935,15 +2859,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>E-285</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3022,7 +2942,7 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3051,7 +2971,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -3091,10 +3011,8 @@
       <c r="BO15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SUR-0649-20</t>
-        </is>
+      <c r="A16" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3106,15 +3024,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>G-621[00]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>G-12</t>
-        </is>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3175,7 +3089,7 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3213,7 +3127,7 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3242,7 +3156,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -3280,10 +3194,8 @@
       <c r="BO16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SUR-0650-20</t>
-        </is>
+      <c r="A17" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3295,15 +3207,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>E-1069</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3382,7 +3290,7 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3429,10 +3337,8 @@
       <c r="BO17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SUR-0651-20</t>
-        </is>
+      <c r="A18" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3444,15 +3350,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>G-861</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>G-6</t>
-        </is>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3513,7 +3415,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3551,7 +3453,7 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3580,7 +3482,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -3618,10 +3520,8 @@
       <c r="BO18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SUR-0199-19</t>
-        </is>
+      <c r="A19" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3633,15 +3533,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>B-222</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3718,7 +3614,7 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -3765,10 +3661,8 @@
       <c r="BO19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SUR-0200-19</t>
-        </is>
+      <c r="A20" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3780,15 +3674,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>B-171</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>B-028</t>
-        </is>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3865,7 +3755,7 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -3896,7 +3786,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -3934,10 +3824,8 @@
       <c r="BO20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SUR-0637-20</t>
-        </is>
+      <c r="A21" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3949,15 +3837,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>B-84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>B-27</t>
-        </is>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4018,7 +3902,7 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4056,7 +3940,7 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4085,7 +3969,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -4114,7 +3998,7 @@
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
@@ -4143,10 +4027,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SUR-0664-20</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4158,15 +4040,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>B-171</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>B-28</t>
-        </is>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4227,7 +4105,7 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4265,7 +4143,7 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4294,7 +4172,7 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -4332,10 +4210,8 @@
       <c r="BO22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SUR-0659-20</t>
-        </is>
+      <c r="A23" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4347,15 +4223,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>E-919</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>E-18</t>
-        </is>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4434,7 +4306,7 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4481,10 +4353,8 @@
       <c r="BO23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SUR-0658-20</t>
-        </is>
+      <c r="A24" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4496,15 +4366,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>E-920</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>E-18</t>
-        </is>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4583,7 +4449,7 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -4630,10 +4496,8 @@
       <c r="BO24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SUR-0656-20</t>
-        </is>
+      <c r="A25" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4645,15 +4509,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>E-1107</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4734,7 +4594,7 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -4781,10 +4641,8 @@
       <c r="BO25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SUR-0657-20</t>
-        </is>
+      <c r="A26" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4796,15 +4654,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>E-1000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4883,7 +4737,7 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -4912,7 +4766,7 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -4941,7 +4795,7 @@
       </c>
       <c r="BG26" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="BH26" t="inlineStr">
@@ -4970,10 +4824,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SUR-0656-20</t>
-        </is>
+      <c r="A27" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4985,15 +4837,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>E-1107</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5074,7 +4922,7 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5121,10 +4969,8 @@
       <c r="BO27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SUR-0583-20</t>
-        </is>
+      <c r="A28" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5136,15 +4982,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>E-638</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5223,7 +5065,7 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5270,10 +5112,8 @@
       <c r="BO28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SUR-0011-21</t>
-        </is>
+      <c r="A29" t="n">
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5285,15 +5125,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CL-1963</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CLOr 1</t>
-        </is>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5368,7 +5204,7 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>IC5087A</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -5397,7 +5233,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -5435,10 +5271,8 @@
       <c r="BO29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SUR-0012-21</t>
-        </is>
+      <c r="A30" t="n">
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5450,13 +5284,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>CL-2057</t>
-        </is>
+      <c r="D30" t="n">
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5531,7 +5363,7 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -5580,10 +5412,8 @@
       <c r="BO30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SUR-0624-20</t>
-        </is>
+      <c r="A31" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5595,13 +5425,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>CL-2073</t>
-        </is>
+      <c r="D31" t="n">
+        <v>29</v>
       </c>
       <c r="E31" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5658,7 +5486,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>BX960</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5687,7 +5515,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5716,7 +5544,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>BX960</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -5745,7 +5573,7 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -5783,10 +5611,8 @@
       <c r="BO31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SUR-0031-21</t>
-        </is>
+      <c r="A32" t="n">
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5798,13 +5624,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>CL-2175</t>
-        </is>
+      <c r="D32" t="n">
+        <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5879,7 +5703,7 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -5910,7 +5734,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -5941,7 +5765,7 @@
       </c>
       <c r="BG32" t="inlineStr">
         <is>
-          <t>CY51W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="BH32" t="inlineStr">
@@ -5970,10 +5794,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SUR-0010-21</t>
-        </is>
+      <c r="A33" t="n">
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5985,15 +5807,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>B-223</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6072,7 +5890,7 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6119,10 +5937,8 @@
       <c r="BO33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SUR-0010-21</t>
-        </is>
+      <c r="A34" t="n">
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6134,15 +5950,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>B-223</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6223,7 +6035,7 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -6270,10 +6082,8 @@
       <c r="BO34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SUR-0046-21</t>
-        </is>
+      <c r="A35" t="n">
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6285,15 +6095,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>B-476</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6374,7 +6180,7 @@
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -6421,10 +6227,8 @@
       <c r="BO35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SUR-0047-21</t>
-        </is>
+      <c r="A36" t="n">
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6436,15 +6240,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>B-236</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>B-27</t>
-        </is>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6507,7 +6307,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -6545,7 +6345,7 @@
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -6574,7 +6374,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -6612,10 +6412,8 @@
       <c r="BO36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SUR-0048-21</t>
-        </is>
+      <c r="A37" t="n">
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -6627,15 +6425,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>B-474</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6716,7 +6510,7 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -6745,7 +6539,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -6783,10 +6577,8 @@
       <c r="BO37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SUR-0048-21</t>
-        </is>
+      <c r="A38" t="n">
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -6798,15 +6590,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>B-474</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -6887,7 +6675,7 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -6916,7 +6704,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -6954,10 +6742,8 @@
       <c r="BO38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SUR-0048-21</t>
-        </is>
+      <c r="A39" t="n">
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6969,15 +6755,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>B-474</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -7058,7 +6840,7 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -7087,7 +6869,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -7125,10 +6907,8 @@
       <c r="BO39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SUR-0052-21</t>
-        </is>
+      <c r="A40" t="n">
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -7140,15 +6920,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>PT-748</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6T</t>
-        </is>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -7209,7 +6985,7 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7238,7 +7014,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>CY20W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -7267,7 +7043,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -7296,7 +7072,7 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>CY20W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -7334,10 +7110,8 @@
       <c r="BO40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SUR-0049-21</t>
-        </is>
+      <c r="A41" t="n">
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -7349,15 +7123,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>B-181</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>B-29</t>
-        </is>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -7438,7 +7208,7 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -7485,10 +7255,8 @@
       <c r="BO41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SUR-0050-21</t>
-        </is>
+      <c r="A42" t="n">
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -7500,15 +7268,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>B-468</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -7589,7 +7353,7 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -7618,7 +7382,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -7656,10 +7420,8 @@
       <c r="BO42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SUR-0201-19</t>
-        </is>
+      <c r="A43" t="n">
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -7671,15 +7433,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>B-236</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>B-027</t>
-        </is>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -7760,7 +7518,7 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -7789,7 +7547,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -7829,10 +7587,8 @@
       <c r="BO43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SUR-0233-19</t>
-        </is>
+      <c r="A44" t="n">
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -7844,15 +7600,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>E-1020</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>42</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -7933,7 +7685,7 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -7964,7 +7716,7 @@
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr">
@@ -7993,7 +7745,7 @@
       </c>
       <c r="BG44" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH44" t="inlineStr">
@@ -8024,10 +7776,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SUR-0234-19</t>
-        </is>
+      <c r="A45" t="n">
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8039,15 +7789,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>E-1021</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -8128,7 +7874,7 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -8157,7 +7903,7 @@
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
@@ -8195,10 +7941,8 @@
       <c r="BO45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SUR-0235-19</t>
-        </is>
+      <c r="A46" t="n">
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8210,15 +7954,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>E-1086</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -8299,7 +8039,7 @@
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -8348,10 +8088,8 @@
       <c r="BO46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SUR-0236-19</t>
-        </is>
+      <c r="A47" t="n">
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8363,15 +8101,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>E-1090</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -8452,7 +8186,7 @@
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -8483,7 +8217,7 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -8512,7 +8246,7 @@
       </c>
       <c r="BG47" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="BH47" t="inlineStr">
@@ -8541,10 +8275,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SUR-0237-19</t>
-        </is>
+      <c r="A48" t="n">
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8556,15 +8288,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>E-389</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -8645,7 +8373,7 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -8674,7 +8402,7 @@
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr">
@@ -8703,7 +8431,7 @@
       </c>
       <c r="BG48" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH48" t="inlineStr">
@@ -8732,10 +8460,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SUR-0238-19</t>
-        </is>
+      <c r="A49" t="n">
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8747,15 +8473,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>E-404</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -8836,7 +8558,7 @@
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -8865,7 +8587,7 @@
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr">
@@ -8894,7 +8616,7 @@
       </c>
       <c r="BG49" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="BH49" t="inlineStr">
@@ -8923,10 +8645,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SUR-0239-19</t>
-        </is>
+      <c r="A50" t="n">
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8938,15 +8658,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>E-1095</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -9027,7 +8743,7 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -9056,7 +8772,7 @@
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr">
@@ -9085,7 +8801,7 @@
       </c>
       <c r="BG50" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="BH50" t="inlineStr">
@@ -9114,10 +8830,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SUR-0240-19</t>
-        </is>
+      <c r="A51" t="n">
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -9129,15 +8843,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>E-1088</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -9218,7 +8928,7 @@
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -9249,7 +8959,7 @@
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr">
@@ -9278,7 +8988,7 @@
       </c>
       <c r="BG51" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="BH51" t="inlineStr">
@@ -9307,10 +9017,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SUR-0241-19</t>
-        </is>
+      <c r="A52" t="n">
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -9322,15 +9030,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>E-1061</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -9411,7 +9115,7 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -9442,7 +9146,7 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -9480,10 +9184,8 @@
       <c r="BO52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SUR-0242-19</t>
-        </is>
+      <c r="A53" t="n">
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -9495,15 +9197,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>E-1022</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -9584,7 +9282,7 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -9613,7 +9311,7 @@
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr">
@@ -9651,10 +9349,8 @@
       <c r="BO53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SUR-0243-19</t>
-        </is>
+      <c r="A54" t="n">
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -9666,15 +9362,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>E-1062</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>52</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -9755,7 +9447,7 @@
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -9784,7 +9476,7 @@
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr">
@@ -9815,7 +9507,7 @@
       </c>
       <c r="BG54" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="BH54" t="inlineStr">
@@ -9844,10 +9536,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SUR-0272-19</t>
-        </is>
+      <c r="A55" t="n">
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -9859,15 +9549,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>B-460</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>53</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -9948,7 +9634,7 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -9997,10 +9683,8 @@
       <c r="BO55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SUR-0274-19</t>
-        </is>
+      <c r="A56" t="n">
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -10012,15 +9696,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>B-476</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -10101,7 +9781,7 @@
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
@@ -10150,10 +9830,8 @@
       <c r="BO56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SUR-0275-19</t>
-        </is>
+      <c r="A57" t="n">
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -10165,15 +9843,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>B-468</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -10254,7 +9928,7 @@
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
@@ -10283,7 +9957,7 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
@@ -10321,10 +9995,8 @@
       <c r="BO57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SUR-0276-19</t>
-        </is>
+      <c r="A58" t="n">
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -10336,15 +10008,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>B-461</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -10452,10 +10120,8 @@
       <c r="BO58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SUR-0277-19</t>
-        </is>
+      <c r="A59" t="n">
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -10467,15 +10133,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>B-519</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -10583,10 +10245,8 @@
       <c r="BO59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SUR-0279-19</t>
-        </is>
+      <c r="A60" t="n">
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -10598,15 +10258,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>B-553</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -10687,7 +10343,7 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP60" t="inlineStr">
@@ -10736,10 +10392,8 @@
       <c r="BO60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SUR-0280-19</t>
-        </is>
+      <c r="A61" t="n">
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -10751,15 +10405,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>B-373</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -10840,7 +10490,7 @@
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP61" t="inlineStr">
@@ -10887,10 +10537,8 @@
       <c r="BO61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SUR-0281-19</t>
-        </is>
+      <c r="A62" t="n">
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -10902,15 +10550,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>B-450</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>60</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -11018,10 +10662,8 @@
       <c r="BO62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SUR-0373-19</t>
-        </is>
+      <c r="A63" t="n">
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -11033,15 +10675,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>G-113</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>G-16</t>
-        </is>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -11133,10 +10771,8 @@
       <c r="BO63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SUR-0403-19</t>
-        </is>
+      <c r="A64" t="n">
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -11148,15 +10784,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>G-849</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>G-16</t>
-        </is>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>62</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -11235,7 +10867,7 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP64" t="inlineStr">
@@ -11264,7 +10896,7 @@
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
@@ -11302,10 +10934,8 @@
       <c r="BO64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SUR-0404-19</t>
-        </is>
+      <c r="A65" t="n">
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -11317,15 +10947,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>G-321</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>G-6</t>
-        </is>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -11406,7 +11032,7 @@
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP65" t="inlineStr">
@@ -11437,7 +11063,7 @@
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr">
@@ -11475,10 +11101,8 @@
       <c r="BO65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>SUR-0405-19</t>
-        </is>
+      <c r="A66" t="n">
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -11490,15 +11114,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>G-499</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>G-4</t>
-        </is>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -11561,7 +11181,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -11599,7 +11219,7 @@
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP66" t="inlineStr">
@@ -11630,7 +11250,7 @@
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
@@ -11668,10 +11288,8 @@
       <c r="BO66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SUR-0435-19</t>
-        </is>
+      <c r="A67" t="n">
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -11683,15 +11301,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>G-369</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -11799,10 +11413,8 @@
       <c r="BO67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SUR-0436-19</t>
-        </is>
+      <c r="A68" t="n">
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -11814,15 +11426,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>G-466</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -11903,7 +11511,7 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP68" t="inlineStr">
@@ -11950,10 +11558,8 @@
       <c r="BO68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SUR-0437-19</t>
-        </is>
+      <c r="A69" t="n">
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -11965,15 +11571,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>G-164</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>67</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -12081,10 +11683,8 @@
       <c r="BO69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SUR-0438-19</t>
-        </is>
+      <c r="A70" t="n">
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -12096,15 +11696,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>G-386</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>68</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -12212,10 +11808,8 @@
       <c r="BO70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>SUR-0439-19</t>
-        </is>
+      <c r="A71" t="n">
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -12227,15 +11821,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>G-399</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>69</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -12316,7 +11906,7 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
@@ -12363,10 +11953,8 @@
       <c r="BO71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SUR-0472-19</t>
-        </is>
+      <c r="A72" t="n">
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -12378,15 +11966,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SDS-610</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>SDS-2</t>
-        </is>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>70</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -12465,7 +12049,7 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>IC962</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
@@ -12512,10 +12096,8 @@
       <c r="BO72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>SUR-0474-19</t>
-        </is>
+      <c r="A73" t="n">
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -12527,15 +12109,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>G-631</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>G-13</t>
-        </is>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>71</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -12614,7 +12192,7 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP73" t="inlineStr">
@@ -12643,7 +12221,7 @@
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr">
@@ -12681,10 +12259,8 @@
       <c r="BO73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>SUR-0487-19</t>
-        </is>
+      <c r="A74" t="n">
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -12696,15 +12272,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>E-939</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="n">
+        <v>72</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -12785,7 +12357,7 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP74" t="inlineStr">
@@ -12832,10 +12404,8 @@
       <c r="BO74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>SUR-0488-19</t>
-        </is>
+      <c r="A75" t="n">
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -12847,15 +12417,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>E-993</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="n">
+        <v>73</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -12936,7 +12502,7 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP75" t="inlineStr">
@@ -12965,7 +12531,7 @@
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr">
@@ -13003,10 +12569,8 @@
       <c r="BO75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SUR-0492-19</t>
-        </is>
+      <c r="A76" t="n">
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -13018,15 +12582,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>E-494</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="n">
+        <v>74</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -13134,10 +12694,8 @@
       <c r="BO76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SUR-0495-19</t>
-        </is>
+      <c r="A77" t="n">
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -13149,15 +12707,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>G-556</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>G-2</t>
-        </is>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="n">
+        <v>75</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -13238,7 +12792,7 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
@@ -13285,10 +12839,8 @@
       <c r="BO77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SUR-0512-19</t>
-        </is>
+      <c r="A78" t="n">
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -13300,15 +12852,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>G-113</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>G-16</t>
-        </is>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -13389,7 +12937,7 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP78" t="inlineStr">
@@ -13420,7 +12968,7 @@
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr">
@@ -13449,7 +12997,7 @@
       </c>
       <c r="BG78" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH78" t="inlineStr">
@@ -13478,10 +13026,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SUR-0535-19</t>
-        </is>
+      <c r="A79" t="n">
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -13493,15 +13039,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>E-809</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>77</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -13582,7 +13124,7 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP79" t="inlineStr">
@@ -13629,10 +13171,8 @@
       <c r="BO79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SUR-0557-19</t>
-        </is>
+      <c r="A80" t="n">
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -13644,15 +13184,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>E-796</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>78</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -13733,7 +13269,7 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP80" t="inlineStr">
@@ -13780,10 +13316,8 @@
       <c r="BO80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SUR-0558-19</t>
-        </is>
+      <c r="A81" t="n">
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -13795,15 +13329,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>E-935</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-8</t>
-        </is>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>79</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -13884,7 +13414,7 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP81" t="inlineStr">
@@ -13931,10 +13461,8 @@
       <c r="BO81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>SUR-0564-19</t>
-        </is>
+      <c r="A82" t="n">
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -13946,15 +13474,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>G-432</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G-2</t>
-        </is>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="n">
+        <v>80</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -14033,7 +13557,7 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
@@ -14080,10 +13604,8 @@
       <c r="BO82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SUR-0625-19</t>
-        </is>
+      <c r="A83" t="n">
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -14095,15 +13617,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>E-854</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>81</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -14184,7 +13702,7 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP83" t="inlineStr">
@@ -14231,10 +13749,8 @@
       <c r="BO83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>SUR-0626-19</t>
-        </is>
+      <c r="A84" t="n">
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -14246,15 +13762,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>E-950</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>82</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -14335,7 +13847,7 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP84" t="inlineStr">
@@ -14366,7 +13878,7 @@
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -14395,7 +13907,7 @@
       </c>
       <c r="BG84" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH84" t="inlineStr">
@@ -14424,10 +13936,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SUR-0629-19</t>
-        </is>
+      <c r="A85" t="n">
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -14439,15 +13949,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>E-773</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>83</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -14528,7 +14034,7 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP85" t="inlineStr">
@@ -14557,7 +14063,7 @@
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -14586,7 +14092,7 @@
       </c>
       <c r="BG85" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH85" t="inlineStr">
@@ -14615,10 +14121,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SUR-0630-19</t>
-        </is>
+      <c r="A86" t="n">
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -14630,15 +14134,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>E-647</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>84</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -14717,7 +14217,7 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP86" t="inlineStr">
@@ -14746,7 +14246,7 @@
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
@@ -14775,7 +14275,7 @@
       </c>
       <c r="BG86" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH86" t="inlineStr">
@@ -14804,10 +14304,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SUR-0644-19</t>
-        </is>
+      <c r="A87" t="n">
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -14819,15 +14317,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>E-1046</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>85</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -14908,7 +14402,7 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
@@ -14939,7 +14433,7 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
@@ -14977,10 +14471,8 @@
       <c r="BO87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SUR-0645-19</t>
-        </is>
+      <c r="A88" t="n">
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -14992,15 +14484,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>G-527</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>G-12</t>
-        </is>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>86</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -15077,7 +14565,7 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP88" t="inlineStr">
@@ -15108,7 +14596,7 @@
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr">
@@ -15146,10 +14634,8 @@
       <c r="BO88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SUR-0690-19</t>
-        </is>
+      <c r="A89" t="n">
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -15161,15 +14647,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>E-773</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -15250,7 +14732,7 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP89" t="inlineStr">
@@ -15279,7 +14761,7 @@
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr">
@@ -15308,7 +14790,7 @@
       </c>
       <c r="BG89" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH89" t="inlineStr">
@@ -15337,10 +14819,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SUR-0697-19</t>
-        </is>
+      <c r="A90" t="n">
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -15352,15 +14832,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>BV-557</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -15441,7 +14917,7 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP90" t="inlineStr">
@@ -15470,7 +14946,7 @@
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr">
@@ -15508,10 +14984,8 @@
       <c r="BO90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SUR-0698-19</t>
-        </is>
+      <c r="A91" t="n">
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -15523,15 +14997,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>BV-356</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>BV-110</t>
-        </is>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -15612,7 +15082,7 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP91" t="inlineStr">
@@ -15641,7 +15111,7 @@
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr">
@@ -15679,10 +15149,8 @@
       <c r="BO91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SUR-0699-19</t>
-        </is>
+      <c r="A92" t="n">
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -15694,15 +15162,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>BV-469</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>90</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -15783,7 +15247,7 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP92" t="inlineStr">
@@ -15812,7 +15276,7 @@
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
@@ -15850,10 +15314,8 @@
       <c r="BO92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SUR-0700-19</t>
-        </is>
+      <c r="A93" t="n">
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -15865,15 +15327,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>BV-449</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>91</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -15954,7 +15412,7 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP93" t="inlineStr">
@@ -16001,10 +15459,8 @@
       <c r="BO93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SUR-0701-19</t>
-        </is>
+      <c r="A94" t="n">
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -16016,15 +15472,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>BV-546</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>92</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -16132,10 +15584,8 @@
       <c r="BO94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>SUR-0702-19</t>
-        </is>
+      <c r="A95" t="n">
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -16147,15 +15597,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>BV-335</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>93</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -16263,10 +15709,8 @@
       <c r="BO95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>SUR-0703-19</t>
-        </is>
+      <c r="A96" t="n">
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -16278,15 +15722,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>BV-326</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -16367,7 +15807,7 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP96" t="inlineStr">
@@ -16414,10 +15854,8 @@
       <c r="BO96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SUR-0704-19</t>
-        </is>
+      <c r="A97" t="n">
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -16429,15 +15867,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>BV-351</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>95</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -16518,7 +15952,7 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP97" t="inlineStr">
@@ -16547,7 +15981,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
@@ -16585,10 +16019,8 @@
       <c r="BO97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>SUR-0705-19</t>
-        </is>
+      <c r="A98" t="n">
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -16600,15 +16032,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>BV-365</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -16689,7 +16117,7 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP98" t="inlineStr">
@@ -16718,7 +16146,7 @@
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
@@ -16756,10 +16184,8 @@
       <c r="BO98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>SUR-0706-19</t>
-        </is>
+      <c r="A99" t="n">
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -16771,15 +16197,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>BV-366</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>97</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -16860,7 +16282,7 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP99" t="inlineStr">
@@ -16889,7 +16311,7 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr">
@@ -16927,10 +16349,8 @@
       <c r="BO99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SUR-0707-19</t>
-        </is>
+      <c r="A100" t="n">
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -16942,15 +16362,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>BV-325</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>98</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -17031,7 +16447,7 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP100" t="inlineStr">
@@ -17078,10 +16494,8 @@
       <c r="BO100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SUR-0708-19</t>
-        </is>
+      <c r="A101" t="n">
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -17093,15 +16507,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>BV-432</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -17182,7 +16592,7 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP101" t="inlineStr">
@@ -17229,10 +16639,8 @@
       <c r="BO101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SUR-0709-19</t>
-        </is>
+      <c r="A102" t="n">
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -17244,15 +16652,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>BV-483</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>BV-105</t>
-        </is>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -17333,7 +16737,7 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
@@ -17380,10 +16784,8 @@
       <c r="BO102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SUR-0710-19</t>
-        </is>
+      <c r="A103" t="n">
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -17395,15 +16797,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>BV-360</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>101</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -17484,7 +16882,7 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP103" t="inlineStr">
@@ -17513,7 +16911,7 @@
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr">
@@ -17551,10 +16949,8 @@
       <c r="BO103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>SUR-0760-19</t>
-        </is>
+      <c r="A104" t="n">
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -17566,15 +16962,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>E-489</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>102</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -17637,7 +17029,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -17675,7 +17067,7 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP104" t="inlineStr">
@@ -17704,7 +17096,7 @@
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr">
@@ -17742,10 +17134,8 @@
       <c r="BO104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SUR-0761-19</t>
-        </is>
+      <c r="A105" t="n">
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -17757,15 +17147,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>E-317</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="n">
+        <v>103</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -17844,7 +17230,7 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP105" t="inlineStr">
@@ -17873,7 +17259,7 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr">
@@ -17902,7 +17288,7 @@
       </c>
       <c r="BG105" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH105" t="inlineStr">
@@ -17931,10 +17317,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SUR-0762-19</t>
-        </is>
+      <c r="A106" t="n">
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -17946,15 +17330,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>E-871</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="n">
+        <v>104</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -18035,7 +17415,7 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP106" t="inlineStr">
@@ -18066,7 +17446,7 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr">
@@ -18104,10 +17484,8 @@
       <c r="BO106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SUR-0763-19</t>
-        </is>
+      <c r="A107" t="n">
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -18119,15 +17497,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>BV-74</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>BV-107</t>
-        </is>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>105</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -18206,7 +17580,7 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP107" t="inlineStr">
@@ -18235,7 +17609,7 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -18266,7 +17640,7 @@
       </c>
       <c r="BG107" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="BH107" t="inlineStr">
@@ -18295,10 +17669,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SUR-0764-19</t>
-        </is>
+      <c r="A108" t="n">
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -18310,15 +17682,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CH-2254</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CH-093 Bis</t>
-        </is>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>106</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -18397,7 +17765,7 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP108" t="inlineStr">
@@ -18426,7 +17794,7 @@
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr">
@@ -18464,10 +17832,8 @@
       <c r="BO108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SUR-0769-19</t>
-        </is>
+      <c r="A109" t="n">
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -18479,15 +17845,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GBK-663</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>GB-IV</t>
-        </is>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>107</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -18568,7 +17930,7 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP109" t="inlineStr">
@@ -18597,7 +17959,7 @@
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr">
@@ -18635,10 +17997,8 @@
       <c r="BO109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>SUR-0808-19</t>
-        </is>
+      <c r="A110" t="n">
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -18650,15 +18010,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>SD-447</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>108</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -18719,7 +18075,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
@@ -18759,7 +18115,7 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP110" t="inlineStr">
@@ -18806,10 +18162,8 @@
       <c r="BO110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SUR-0915-19</t>
-        </is>
+      <c r="A111" t="n">
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -18821,15 +18175,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>E-949</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>109</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -18892,7 +18242,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -18930,7 +18280,7 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP111" t="inlineStr">
@@ -18977,10 +18327,8 @@
       <c r="BO111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SUR-0983-19</t>
-        </is>
+      <c r="A112" t="n">
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -18992,15 +18340,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>E-1090</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="n">
+        <v>110</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -19063,7 +18407,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -19101,7 +18445,7 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP112" t="inlineStr">
@@ -19130,7 +18474,7 @@
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
@@ -19159,7 +18503,7 @@
       </c>
       <c r="BG112" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH112" t="inlineStr">
@@ -19190,10 +18534,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SUR-0984-19</t>
-        </is>
+      <c r="A113" t="n">
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -19205,15 +18547,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>E-1013</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>111</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -19294,7 +18632,7 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP113" t="inlineStr">
@@ -19341,10 +18679,8 @@
       <c r="BO113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SUR-0002-20</t>
-        </is>
+      <c r="A114" t="n">
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -19356,15 +18692,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CH-1851</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>CH-111</t>
-        </is>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>112</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -19445,7 +18777,7 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP114" t="inlineStr">
@@ -19476,7 +18808,7 @@
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr">
@@ -19505,7 +18837,7 @@
       </c>
       <c r="BG114" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH114" t="inlineStr">
@@ -19534,10 +18866,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SUR-0025-20</t>
-        </is>
+      <c r="A115" t="n">
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -19549,15 +18879,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>EN-650</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>EN-2</t>
-        </is>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="n">
+        <v>113</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -19638,7 +18964,7 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP115" t="inlineStr">
@@ -19667,7 +18993,7 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr">
@@ -19705,10 +19031,8 @@
       <c r="BO115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SUR-0032-20</t>
-        </is>
+      <c r="A116" t="n">
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -19720,15 +19044,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>E-420</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>114</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -19791,7 +19111,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
@@ -19820,7 +19140,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>BX958</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AG116" t="inlineStr">
@@ -19849,7 +19169,7 @@
       </c>
       <c r="AO116" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP116" t="inlineStr">
@@ -19880,7 +19200,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr">
@@ -19909,7 +19229,7 @@
       </c>
       <c r="BG116" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH116" t="inlineStr">
@@ -19938,10 +19258,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SUR-0053-20</t>
-        </is>
+      <c r="A117" t="n">
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -19953,15 +19271,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>EA-610</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>EA-2</t>
-        </is>
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>115</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -20040,7 +19354,7 @@
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP117" t="inlineStr">
@@ -20089,10 +19403,8 @@
       <c r="BO117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SUR-0248-20</t>
-        </is>
+      <c r="A118" t="n">
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -20104,15 +19416,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>E-837</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>116</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -20191,7 +19499,7 @@
       <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP118" t="inlineStr">
@@ -20238,10 +19546,8 @@
       <c r="BO118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>SUR-0249-20</t>
-        </is>
+      <c r="A119" t="n">
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -20253,15 +19559,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>E-988</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="n">
+        <v>117</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -20342,7 +19644,7 @@
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP119" t="inlineStr">
@@ -20371,7 +19673,7 @@
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr">
@@ -20409,10 +19711,8 @@
       <c r="BO119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>SUR-0250-20</t>
-        </is>
+      <c r="A120" t="n">
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -20424,15 +19724,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>E-606</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="n">
+        <v>118</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -20493,7 +19789,7 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
@@ -20522,7 +19818,7 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AG120" t="inlineStr">
@@ -20578,10 +19874,8 @@
       <c r="BO120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>SUR-0251-20</t>
-        </is>
+      <c r="A121" t="n">
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -20593,15 +19887,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>E-635</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>119</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -20682,7 +19972,7 @@
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP121" t="inlineStr">
@@ -20711,7 +20001,7 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr">
@@ -20749,10 +20039,8 @@
       <c r="BO121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>SUR-0252-20</t>
-        </is>
+      <c r="A122" t="n">
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -20764,15 +20052,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>E-981</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>E-11</t>
-        </is>
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="n">
+        <v>120</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -20835,7 +20119,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
@@ -20873,7 +20157,7 @@
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP122" t="inlineStr">
@@ -20902,7 +20186,7 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr">
@@ -20940,10 +20224,8 @@
       <c r="BO122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>SUR-0253-20</t>
-        </is>
+      <c r="A123" t="n">
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -20955,15 +20237,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>E-438</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>121</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -21071,10 +20349,8 @@
       <c r="BO123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SUR-0321-20</t>
-        </is>
+      <c r="A124" t="n">
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -21086,15 +20362,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>CH-1851</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>CH-111</t>
-        </is>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>122</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -21175,7 +20447,7 @@
       <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP124" t="inlineStr">
@@ -21204,7 +20476,7 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr">
@@ -21242,10 +20514,8 @@
       <c r="BO124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SUR-0322-20</t>
-        </is>
+      <c r="A125" t="n">
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -21257,15 +20527,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>B-487</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>B-27</t>
-        </is>
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="n">
+        <v>123</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -21346,7 +20612,7 @@
       <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP125" t="inlineStr">
@@ -21375,7 +20641,7 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr">
@@ -21413,10 +20679,8 @@
       <c r="BO125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SUR-0324-20</t>
-        </is>
+      <c r="A126" t="n">
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -21428,15 +20692,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>SDS-610</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>SDS-2</t>
-        </is>
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="n">
+        <v>124</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -21495,7 +20755,7 @@
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr">
         <is>
-          <t>IC962</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
@@ -21533,7 +20793,7 @@
       <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="inlineStr">
         <is>
-          <t>IC962</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP126" t="inlineStr">
@@ -21580,10 +20840,8 @@
       <c r="BO126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SUR-0325-20</t>
-        </is>
+      <c r="A127" t="n">
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -21595,15 +20853,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>E-962</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>125</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -21684,7 +20938,7 @@
       <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP127" t="inlineStr">
@@ -21713,7 +20967,7 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr">
@@ -21751,10 +21005,8 @@
       <c r="BO127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SUR-0337-20</t>
-        </is>
+      <c r="A128" t="n">
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -21766,15 +21018,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>B-265</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>B-29</t>
-        </is>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -21837,7 +21085,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>CYB598</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
@@ -21875,7 +21123,7 @@
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP128" t="inlineStr">
@@ -21922,10 +21170,8 @@
       <c r="BO128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SUR-0366-20</t>
-        </is>
+      <c r="A129" t="n">
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -21937,15 +21183,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>E-635</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -22026,7 +21268,7 @@
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP129" t="inlineStr">
@@ -22055,7 +21297,7 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr">
@@ -22093,10 +21335,8 @@
       <c r="BO129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>SUR-0367-20</t>
-        </is>
+      <c r="A130" t="n">
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -22108,15 +21348,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>E-837</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>128</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -22197,7 +21433,7 @@
       <c r="AN130" t="inlineStr"/>
       <c r="AO130" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP130" t="inlineStr">
@@ -22226,7 +21462,7 @@
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr">
@@ -22255,7 +21491,7 @@
       </c>
       <c r="BG130" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH130" t="inlineStr">
@@ -22284,10 +21520,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SUR-0368-20</t>
-        </is>
+      <c r="A131" t="n">
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -22299,15 +21533,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>E-951</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>129</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -22388,7 +21618,7 @@
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP131" t="inlineStr">
@@ -22419,7 +21649,7 @@
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr">
@@ -22448,7 +21678,7 @@
       </c>
       <c r="BG131" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="BH131" t="inlineStr">
@@ -22477,10 +21707,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SUR-0369-20</t>
-        </is>
+      <c r="A132" t="n">
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -22492,15 +21720,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>E-917</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="n">
+        <v>130</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -22561,7 +21785,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
@@ -22599,7 +21823,7 @@
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP132" t="inlineStr">
@@ -22628,7 +21852,7 @@
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
@@ -22657,7 +21881,7 @@
       </c>
       <c r="BG132" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH132" t="inlineStr">
@@ -22686,10 +21910,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SUR-0390-20</t>
-        </is>
+      <c r="A133" t="n">
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -22701,15 +21923,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>B-373</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>B-20</t>
-        </is>
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="n">
+        <v>131</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -22790,7 +22008,7 @@
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP133" t="inlineStr">
@@ -22819,7 +22037,7 @@
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY133" t="inlineStr">
@@ -22857,10 +22075,8 @@
       <c r="BO133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SUR-0420-20</t>
-        </is>
+      <c r="A134" t="n">
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -22872,15 +22088,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>G-863</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>G-14</t>
-        </is>
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="n">
+        <v>132</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -22961,7 +22173,7 @@
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP134" t="inlineStr">
@@ -23008,10 +22220,8 @@
       <c r="BO134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SUR-0421-20</t>
-        </is>
+      <c r="A135" t="n">
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -23023,15 +22233,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>E-569</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="n">
+        <v>133</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -23139,10 +22345,8 @@
       <c r="BO135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SUR-0422-20</t>
-        </is>
+      <c r="A136" t="n">
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -23154,15 +22358,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>E-768</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="n">
+        <v>134</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -23243,7 +22443,7 @@
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP136" t="inlineStr">
@@ -23290,10 +22490,8 @@
       <c r="BO136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SUR-0437-20</t>
-        </is>
+      <c r="A137" t="n">
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -23305,15 +22503,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>E-578</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D137" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="n">
+        <v>135</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -23394,7 +22588,7 @@
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP137" t="inlineStr">
@@ -23441,10 +22635,8 @@
       <c r="BO137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SUR-0438-20</t>
-        </is>
+      <c r="A138" t="n">
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -23456,15 +22648,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>E-482</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D138" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="n">
+        <v>136</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -23545,7 +22733,7 @@
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP138" t="inlineStr">
@@ -23574,7 +22762,7 @@
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY138" t="inlineStr">
@@ -23612,10 +22800,8 @@
       <c r="BO138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>SUR-0439-20</t>
-        </is>
+      <c r="A139" t="n">
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -23627,15 +22813,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>E-277</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D139" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="n">
+        <v>137</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -23716,7 +22898,7 @@
       <c r="AN139" t="inlineStr"/>
       <c r="AO139" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP139" t="inlineStr">
@@ -23745,7 +22927,7 @@
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY139" t="inlineStr">
@@ -23783,10 +22965,8 @@
       <c r="BO139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SUR-0440-20</t>
-        </is>
+      <c r="A140" t="n">
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -23798,15 +22978,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>E-389</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>E-20</t>
-        </is>
+      <c r="D140" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="n">
+        <v>138</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -23887,7 +23063,7 @@
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP140" t="inlineStr">
@@ -23916,7 +23092,7 @@
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY140" t="inlineStr">
@@ -23954,10 +23130,8 @@
       <c r="BO140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SUR-0512-20</t>
-        </is>
+      <c r="A141" t="n">
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -23969,15 +23143,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>CH-2109</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>CH-22</t>
-        </is>
+      <c r="D141" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="n">
+        <v>139</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -24040,7 +23210,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
@@ -24078,7 +23248,7 @@
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP141" t="inlineStr">
@@ -24107,7 +23277,7 @@
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY141" t="inlineStr">
@@ -24145,10 +23315,8 @@
       <c r="BO141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SUR-0197-19</t>
-        </is>
+      <c r="A142" t="n">
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -24160,15 +23328,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>MH-301</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Myburg 5</t>
-        </is>
+      <c r="D142" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="n">
+        <v>140</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -24249,7 +23413,7 @@
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>DS100</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP142" t="inlineStr">
@@ -24280,7 +23444,7 @@
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY142" t="inlineStr">
@@ -24320,10 +23484,8 @@
       <c r="BO142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>SUR-0271-19</t>
-        </is>
+      <c r="A143" t="n">
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -24335,15 +23497,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>B-223</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>B-29</t>
-        </is>
+      <c r="D143" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="n">
+        <v>141</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -24424,7 +23582,7 @@
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP143" t="inlineStr">
@@ -24471,10 +23629,8 @@
       <c r="BO143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>SUR-0273-19</t>
-        </is>
+      <c r="A144" t="n">
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -24486,15 +23642,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>B-421</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D144" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="n">
+        <v>142</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -24602,10 +23754,8 @@
       <c r="BO144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SUR-0321-19</t>
-        </is>
+      <c r="A145" t="n">
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -24617,15 +23767,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>E-908</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D145" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="n">
+        <v>143</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -24706,7 +23852,7 @@
       <c r="AN145" t="inlineStr"/>
       <c r="AO145" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP145" t="inlineStr">
@@ -24753,10 +23899,8 @@
       <c r="BO145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SUR-0329-19</t>
-        </is>
+      <c r="A146" t="n">
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -24768,15 +23912,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ASD-403</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
+      <c r="D146" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="n">
+        <v>144</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -24857,7 +23997,7 @@
       <c r="AN146" t="inlineStr"/>
       <c r="AO146" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP146" t="inlineStr">
@@ -24904,10 +24044,8 @@
       <c r="BO146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SUR-0330-19</t>
-        </is>
+      <c r="A147" t="n">
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -24919,15 +24057,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>LC-785</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>EN-2</t>
-        </is>
+      <c r="D147" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="n">
+        <v>145</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -25008,7 +24142,7 @@
       <c r="AN147" t="inlineStr"/>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP147" t="inlineStr">
@@ -25039,7 +24173,7 @@
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr">
@@ -25068,7 +24202,7 @@
       </c>
       <c r="BG147" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="BH147" t="inlineStr">
@@ -25097,10 +24231,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SUR-0331-19</t>
-        </is>
+      <c r="A148" t="n">
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -25112,15 +24244,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>PCN-652</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>EN-3</t>
-        </is>
+      <c r="D148" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="n">
+        <v>146</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -25201,7 +24329,7 @@
       <c r="AN148" t="inlineStr"/>
       <c r="AO148" t="inlineStr">
         <is>
-          <t>DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP148" t="inlineStr">
@@ -25248,10 +24376,8 @@
       <c r="BO148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SUR-0441-19</t>
-        </is>
+      <c r="A149" t="n">
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -25263,15 +24389,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>G-488</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>G-5</t>
-        </is>
+      <c r="D149" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="n">
+        <v>147</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -25379,10 +24501,8 @@
       <c r="BO149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SUR-0475-19</t>
-        </is>
+      <c r="A150" t="n">
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -25394,15 +24514,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>G-846</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>G-12</t>
-        </is>
+      <c r="D150" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="n">
+        <v>148</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -25483,7 +24599,7 @@
       <c r="AN150" t="inlineStr"/>
       <c r="AO150" t="inlineStr">
         <is>
-          <t>BX844</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP150" t="inlineStr">
@@ -25512,7 +24628,7 @@
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY150" t="inlineStr">
@@ -25550,10 +24666,8 @@
       <c r="BO150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SUR-0508-19</t>
-        </is>
+      <c r="A151" t="n">
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -25565,15 +24679,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>BV-545</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>BV-101</t>
-        </is>
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="n">
+        <v>149</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -25681,10 +24791,8 @@
       <c r="BO151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SUR-0536-19</t>
-        </is>
+      <c r="A152" t="n">
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -25696,15 +24804,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>E-930</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D152" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="n">
+        <v>150</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -25785,7 +24889,7 @@
       <c r="AN152" t="inlineStr"/>
       <c r="AO152" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP152" t="inlineStr">
@@ -25816,7 +24920,7 @@
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr">
@@ -25845,7 +24949,7 @@
       </c>
       <c r="BG152" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="BH152" t="inlineStr">
@@ -25876,10 +24980,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SUR-0537-19</t>
-        </is>
+      <c r="A153" t="n">
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -25891,15 +24993,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>E-1028</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="n">
+        <v>151</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -25980,7 +25078,7 @@
       <c r="AN153" t="inlineStr"/>
       <c r="AO153" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP153" t="inlineStr">
@@ -26011,7 +25109,7 @@
       </c>
       <c r="AX153" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY153" t="inlineStr">
@@ -26049,10 +25147,8 @@
       <c r="BO153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SUR-0538-19</t>
-        </is>
+      <c r="A154" t="n">
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -26064,15 +25160,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>E-850</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D154" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="n">
+        <v>152</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -26153,7 +25245,7 @@
       <c r="AN154" t="inlineStr"/>
       <c r="AO154" t="inlineStr">
         <is>
-          <t>ICS408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP154" t="inlineStr">
@@ -26182,7 +25274,7 @@
       </c>
       <c r="AX154" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY154" t="inlineStr">
@@ -26220,10 +25312,8 @@
       <c r="BO154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SUR-0539-19</t>
-        </is>
+      <c r="A155" t="n">
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -26235,15 +25325,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>E-631</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>E-5</t>
-        </is>
+      <c r="D155" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="n">
+        <v>153</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -26324,7 +25410,7 @@
       <c r="AN155" t="inlineStr"/>
       <c r="AO155" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP155" t="inlineStr">
@@ -26371,10 +25457,8 @@
       <c r="BO155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SUR-0540-19</t>
-        </is>
+      <c r="A156" t="n">
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -26386,15 +25470,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>E-553</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>E-7</t>
-        </is>
+      <c r="D156" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="n">
+        <v>154</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -26475,7 +25555,7 @@
       <c r="AN156" t="inlineStr"/>
       <c r="AO156" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP156" t="inlineStr">
@@ -26522,10 +25602,8 @@
       <c r="BO156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SUR-0565-19</t>
-        </is>
+      <c r="A157" t="n">
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -26537,15 +25615,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>RA-1024</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Batería Caleta Olivares</t>
-        </is>
+      <c r="D157" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="n">
+        <v>155</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -26626,7 +25700,7 @@
       <c r="AN157" t="inlineStr"/>
       <c r="AO157" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP157" t="inlineStr">
@@ -26657,7 +25731,7 @@
       </c>
       <c r="AX157" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY157" t="inlineStr">
@@ -26695,10 +25769,8 @@
       <c r="BO157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SUR-0079-21</t>
-        </is>
+      <c r="A158" t="n">
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -26710,15 +25782,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>B-481</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>B-26</t>
-        </is>
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>156</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -26781,7 +25849,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>ICS408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
@@ -26819,7 +25887,7 @@
       <c r="AN158" t="inlineStr"/>
       <c r="AO158" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP158" t="inlineStr">
@@ -26850,7 +25918,7 @@
       </c>
       <c r="AX158" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY158" t="inlineStr">
@@ -26888,10 +25956,8 @@
       <c r="BO158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SUR-0104-21</t>
-        </is>
+      <c r="A159" t="n">
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -26903,15 +25969,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>B-230</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>B-028</t>
-        </is>
+      <c r="D159" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="n">
+        <v>157</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -26974,7 +26036,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
@@ -27012,7 +26074,7 @@
       <c r="AN159" t="inlineStr"/>
       <c r="AO159" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP159" t="inlineStr">
@@ -27041,7 +26103,7 @@
       </c>
       <c r="AX159" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY159" t="inlineStr">
@@ -27079,10 +26141,8 @@
       <c r="BO159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SUR-0105-21</t>
-        </is>
+      <c r="A160" t="n">
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -27094,15 +26154,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>B-231</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>B 028</t>
-        </is>
+      <c r="D160" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="n">
+        <v>158</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -27165,7 +26221,7 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
@@ -27203,7 +26259,7 @@
       <c r="AN160" t="inlineStr"/>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP160" t="inlineStr">
@@ -27250,10 +26306,8 @@
       <c r="BO160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SUR-0107-21</t>
-        </is>
+      <c r="A161" t="n">
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -27265,15 +26319,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>B-222</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D161" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="n">
+        <v>159</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -27336,7 +26386,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
@@ -27374,7 +26424,7 @@
       <c r="AN161" t="inlineStr"/>
       <c r="AO161" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP161" t="inlineStr">
@@ -27421,10 +26471,8 @@
       <c r="BO161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SUR-0106-21</t>
-        </is>
+      <c r="A162" t="n">
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -27436,15 +26484,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>B-514</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D162" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="n">
+        <v>160</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -27525,7 +26569,7 @@
       <c r="AN162" t="inlineStr"/>
       <c r="AO162" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP162" t="inlineStr">
@@ -27554,7 +26598,7 @@
       </c>
       <c r="AX162" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY162" t="inlineStr">
@@ -27592,10 +26636,8 @@
       <c r="BO162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SUR-0108-21</t>
-        </is>
+      <c r="A163" t="n">
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -27607,15 +26649,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>B-174</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D163" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="n">
+        <v>161</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -27696,7 +26734,7 @@
       <c r="AN163" t="inlineStr"/>
       <c r="AO163" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP163" t="inlineStr">
@@ -27743,10 +26781,8 @@
       <c r="BO163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SUR-0109-21</t>
-        </is>
+      <c r="A164" t="n">
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -27758,15 +26794,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>B-175</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>B-029</t>
-        </is>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>162</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -27847,7 +26879,7 @@
       <c r="AN164" t="inlineStr"/>
       <c r="AO164" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP164" t="inlineStr">
@@ -27894,10 +26926,8 @@
       <c r="BO164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SUR-0110-21</t>
-        </is>
+      <c r="A165" t="n">
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -27909,15 +26939,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>B-421</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>B-026</t>
-        </is>
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>163</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -27998,7 +27024,7 @@
       <c r="AN165" t="inlineStr"/>
       <c r="AO165" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP165" t="inlineStr">
@@ -28045,10 +27071,8 @@
       <c r="BO165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SUR-0111-21</t>
-        </is>
+      <c r="A166" t="n">
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -28060,15 +27084,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>B-450</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>B-026</t>
-        </is>
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="n">
+        <v>164</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -28149,7 +27169,7 @@
       <c r="AN166" t="inlineStr"/>
       <c r="AO166" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP166" t="inlineStr">
@@ -28178,7 +27198,7 @@
       </c>
       <c r="AX166" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY166" t="inlineStr">
@@ -28216,10 +27236,8 @@
       <c r="BO166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SUR-0116-21</t>
-        </is>
+      <c r="A167" t="n">
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -28231,15 +27249,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>E-488</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D167" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="n">
+        <v>165</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -28302,7 +27316,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
@@ -28340,7 +27354,7 @@
       <c r="AN167" t="inlineStr"/>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP167" t="inlineStr">
@@ -28369,7 +27383,7 @@
       </c>
       <c r="AX167" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY167" t="inlineStr">
@@ -28407,10 +27421,8 @@
       <c r="BO167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SUR-0117-21</t>
-        </is>
+      <c r="A168" t="n">
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -28422,15 +27434,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>E-490</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>E-005</t>
-        </is>
+      <c r="D168" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="n">
+        <v>166</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -28493,7 +27501,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
@@ -28531,7 +27539,7 @@
       <c r="AN168" t="inlineStr"/>
       <c r="AO168" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP168" t="inlineStr">
@@ -28578,10 +27586,8 @@
       <c r="BO168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SUR-0129-21</t>
-        </is>
+      <c r="A169" t="n">
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -28593,15 +27599,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>BV-575</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D169" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="n">
+        <v>167</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -28680,7 +27682,7 @@
       <c r="AN169" t="inlineStr"/>
       <c r="AO169" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP169" t="inlineStr">
@@ -28727,10 +27729,8 @@
       <c r="BO169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SUR-0118-21</t>
-        </is>
+      <c r="A170" t="n">
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -28742,15 +27742,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>E-517</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>E-05</t>
-        </is>
+      <c r="D170" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="n">
+        <v>168</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -28813,7 +27809,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X170" t="inlineStr">
@@ -28851,7 +27847,7 @@
       <c r="AN170" t="inlineStr"/>
       <c r="AO170" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP170" t="inlineStr">
@@ -28880,7 +27876,7 @@
       </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr">
@@ -28918,10 +27914,8 @@
       <c r="BO170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SUR-0120-21</t>
-        </is>
+      <c r="A171" t="n">
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -28933,15 +27927,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>G-657</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>G-016</t>
-        </is>
+      <c r="D171" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="n">
+        <v>169</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -29006,7 +27996,7 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X171" t="inlineStr">
@@ -29044,7 +28034,7 @@
       <c r="AN171" t="inlineStr"/>
       <c r="AO171" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP171" t="inlineStr">
@@ -29073,7 +28063,7 @@
       </c>
       <c r="AX171" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY171" t="inlineStr">
@@ -29111,10 +28101,8 @@
       <c r="BO171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SUR-0121-21</t>
-        </is>
+      <c r="A172" t="n">
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -29126,15 +28114,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>G-585</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>G-012</t>
-        </is>
+      <c r="D172" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="n">
+        <v>170</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -29199,7 +28183,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
@@ -29237,7 +28221,7 @@
       <c r="AN172" t="inlineStr"/>
       <c r="AO172" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP172" t="inlineStr">
@@ -29266,7 +28250,7 @@
       </c>
       <c r="AX172" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY172" t="inlineStr">
@@ -29304,10 +28288,8 @@
       <c r="BO172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SUR-0130-21</t>
-        </is>
+      <c r="A173" t="n">
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -29319,15 +28301,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>BV-575</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>BV-108</t>
-        </is>
+      <c r="D173" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>171</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -29406,7 +28384,7 @@
       <c r="AN173" t="inlineStr"/>
       <c r="AO173" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP173" t="inlineStr">
@@ -29453,10 +28431,8 @@
       <c r="BO173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SUR-0123-21</t>
-        </is>
+      <c r="A174" t="n">
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -29468,15 +28444,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>E-816</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>E-15</t>
-        </is>
+      <c r="D174" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="n">
+        <v>172</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -29539,7 +28511,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
@@ -29577,7 +28549,7 @@
       <c r="AN174" t="inlineStr"/>
       <c r="AO174" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP174" t="inlineStr">
@@ -29624,10 +28596,8 @@
       <c r="BO174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SUR-0124-21</t>
-        </is>
+      <c r="A175" t="n">
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -29639,15 +28609,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>E-796</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D175" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="n">
+        <v>173</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -29728,7 +28694,7 @@
       <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP175" t="inlineStr">
@@ -29775,10 +28741,8 @@
       <c r="BO175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SUR-0125-21</t>
-        </is>
+      <c r="A176" t="n">
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -29790,15 +28754,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>E-950</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>E-16</t>
-        </is>
+      <c r="D176" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="n">
+        <v>174</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -29861,7 +28821,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="X176" t="inlineStr">
@@ -29899,7 +28859,7 @@
       <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP176" t="inlineStr">
@@ -29928,7 +28888,7 @@
       </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
@@ -29966,10 +28926,8 @@
       <c r="BO176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SUR-0127-21</t>
-        </is>
+      <c r="A177" t="n">
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -29981,15 +28939,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>E-683</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D177" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="n">
+        <v>175</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -30070,7 +29024,7 @@
       <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr">
         <is>
-          <t>NOVOC®DS3508</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AP177" t="inlineStr">
@@ -30101,7 +29055,7 @@
       </c>
       <c r="AX177" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY177" t="inlineStr">
@@ -30139,10 +29093,8 @@
       <c r="BO177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SUR-0128-21</t>
-        </is>
+      <c r="A178" t="n">
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -30154,15 +29106,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>E-925</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D178" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="n">
+        <v>176</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -30243,7 +29191,7 @@
       <c r="AN178" t="inlineStr"/>
       <c r="AO178" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP178" t="inlineStr">
@@ -30272,7 +29220,7 @@
       </c>
       <c r="AX178" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AY178" t="inlineStr">
@@ -30310,10 +29258,8 @@
       <c r="BO178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SUR-0126-21</t>
-        </is>
+      <c r="A179" t="n">
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -30325,15 +29271,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>E-887</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D179" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="n">
+        <v>177</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -30414,7 +29356,7 @@
       <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP179" t="inlineStr">
@@ -30461,10 +29403,8 @@
       <c r="BO179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SUR-0210-21</t>
-        </is>
+      <c r="A180" t="n">
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -30476,15 +29416,11 @@
           <t>Operadora 1 Santa Cruz</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>LP-200</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>LP07</t>
-        </is>
+      <c r="D180" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="n">
+        <v>178</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -30543,7 +29479,7 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="X180" t="inlineStr">
@@ -30572,7 +29508,7 @@
       </c>
       <c r="AF180" t="inlineStr">
         <is>
-          <t>DS92</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="AG180" t="inlineStr">
@@ -30599,7 +29535,7 @@
       </c>
       <c r="AO180" t="inlineStr">
         <is>
-          <t>IC5400</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP180" t="inlineStr">
@@ -30646,10 +29582,8 @@
       <c r="BO180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SUR-0212-21</t>
-        </is>
+      <c r="A181" t="n">
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -30661,15 +29595,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>E-548</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D181" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="n">
+        <v>179</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -30775,10 +29705,8 @@
       <c r="BO181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SUR-0214-21</t>
-        </is>
+      <c r="A182" t="n">
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -30790,15 +29718,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>E-692</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>E-11</t>
-        </is>
+      <c r="D182" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="n">
+        <v>180</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -30904,10 +29828,8 @@
       <c r="BO182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SUR-0215-21</t>
-        </is>
+      <c r="A183" t="n">
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -30919,15 +29841,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>E-741</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>E-11</t>
-        </is>
+      <c r="D183" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="n">
+        <v>181</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -31006,7 +29924,7 @@
       <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP183" t="inlineStr">
@@ -31053,10 +29971,8 @@
       <c r="BO183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SUR-0216-21</t>
-        </is>
+      <c r="A184" t="n">
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -31068,15 +29984,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>E-906</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D184" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="n">
+        <v>182</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -31155,7 +30067,7 @@
       <c r="AN184" t="inlineStr"/>
       <c r="AO184" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP184" t="inlineStr">
@@ -31202,10 +30114,8 @@
       <c r="BO184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SUR-0217-21</t>
-        </is>
+      <c r="A185" t="n">
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -31217,15 +30127,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>E-555</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>E-21</t>
-        </is>
+      <c r="D185" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="n">
+        <v>183</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -31304,7 +30210,7 @@
       <c r="AN185" t="inlineStr"/>
       <c r="AO185" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AP185" t="inlineStr">
@@ -31351,10 +30257,8 @@
       <c r="BO185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SUR-0213-21</t>
-        </is>
+      <c r="A186" t="n">
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -31366,15 +30270,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>E.d-966</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>E-07</t>
-        </is>
+      <c r="D186" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="n">
+        <v>184</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -31437,7 +30337,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="X186" t="inlineStr">
@@ -31475,7 +30375,7 @@
       <c r="AN186" t="inlineStr"/>
       <c r="AO186" t="inlineStr">
         <is>
-          <t>BX715</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP186" t="inlineStr">
@@ -31504,7 +30404,7 @@
       </c>
       <c r="AX186" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY186" t="inlineStr">
@@ -31542,10 +30442,8 @@
       <c r="BO186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SUR-0259-21</t>
-        </is>
+      <c r="A187" t="n">
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -31557,15 +30455,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>BV-85</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>BV-107</t>
-        </is>
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="n">
+        <v>185</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -31646,7 +30540,7 @@
       <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr">
         <is>
-          <t>IC5408</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="AP187" t="inlineStr">
@@ -31675,7 +30569,7 @@
       </c>
       <c r="AX187" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY187" t="inlineStr">
@@ -31713,10 +30607,8 @@
       <c r="BO187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SUR-0260-21</t>
-        </is>
+      <c r="A188" t="n">
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -31728,15 +30620,11 @@
           <t>Operadora 1 Chubut</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>BV-74</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>BV-107</t>
-        </is>
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="n">
+        <v>186</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -31817,7 +30705,7 @@
       <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr">
         <is>
-          <t>BX927</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="AP188" t="inlineStr">
@@ -31846,7 +30734,7 @@
       </c>
       <c r="AX188" t="inlineStr">
         <is>
-          <t>CY59W</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="AY188" t="inlineStr">

--- a/Data/BD Autom Recomendaciones.xlsx
+++ b/Data/BD Autom Recomendaciones.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BO$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BO$193</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="112">
   <si>
     <t>Número de protocolo</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Raúl Fritz</t>
+  </si>
+  <si>
+    <t>Myburg</t>
   </si>
 </sst>
 </file>
@@ -721,16 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO188"/>
+  <dimension ref="A1:BO193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K172" sqref="K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -7409,6 +7409,27 @@
       <c r="N63" t="s">
         <v>72</v>
       </c>
+      <c r="O63">
+        <v>0.7</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>213</v>
+      </c>
+      <c r="R63">
+        <v>0.13</v>
+      </c>
+      <c r="S63">
+        <v>1.3</v>
+      </c>
+      <c r="T63">
+        <v>71</v>
+      </c>
+      <c r="U63">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -20419,7 +20440,486 @@
         <v>343</v>
       </c>
     </row>
+    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189">
+        <v>187</v>
+      </c>
+      <c r="E189">
+        <v>187</v>
+      </c>
+      <c r="F189" t="s">
+        <v>111</v>
+      </c>
+      <c r="G189" t="s">
+        <v>82</v>
+      </c>
+      <c r="H189" s="2">
+        <v>44347</v>
+      </c>
+      <c r="I189" t="s">
+        <v>90</v>
+      </c>
+      <c r="J189">
+        <v>57</v>
+      </c>
+      <c r="K189">
+        <v>3.99</v>
+      </c>
+      <c r="L189">
+        <v>93</v>
+      </c>
+      <c r="M189" s="2">
+        <v>44126</v>
+      </c>
+      <c r="N189" t="s">
+        <v>72</v>
+      </c>
+      <c r="O189">
+        <v>0.81545453371542642</v>
+      </c>
+      <c r="P189">
+        <v>1.074233375781511</v>
+      </c>
+      <c r="Q189">
+        <v>175.89109655247461</v>
+      </c>
+      <c r="R189">
+        <v>0.64494368959322479</v>
+      </c>
+      <c r="T189">
+        <v>9.3306520800000001</v>
+      </c>
+      <c r="U189">
+        <v>0.2098872</v>
+      </c>
+      <c r="V189">
+        <v>1</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR189">
+        <v>4</v>
+      </c>
+      <c r="AU189">
+        <v>75</v>
+      </c>
+      <c r="AV189">
+        <v>2.93</v>
+      </c>
+      <c r="AW189">
+        <v>356.48333333333329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" t="s">
+        <v>80</v>
+      </c>
+      <c r="D190">
+        <v>188</v>
+      </c>
+      <c r="E190">
+        <v>188</v>
+      </c>
+      <c r="F190" t="s">
+        <v>81</v>
+      </c>
+      <c r="G190" t="s">
+        <v>82</v>
+      </c>
+      <c r="H190" s="2">
+        <v>44348</v>
+      </c>
+      <c r="I190" t="s">
+        <v>71</v>
+      </c>
+      <c r="J190">
+        <v>140</v>
+      </c>
+      <c r="K190">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L190">
+        <v>96.5</v>
+      </c>
+      <c r="M190" s="2">
+        <v>44151</v>
+      </c>
+      <c r="N190" t="s">
+        <v>72</v>
+      </c>
+      <c r="O190">
+        <v>1.26454322634113</v>
+      </c>
+      <c r="P190">
+        <v>1.252981248289323</v>
+      </c>
+      <c r="Q190">
+        <v>326.97952677500621</v>
+      </c>
+      <c r="R190">
+        <v>1.0048009521248511</v>
+      </c>
+      <c r="S190">
+        <v>17.657955297885401</v>
+      </c>
+      <c r="T190">
+        <v>9.558228960000001</v>
+      </c>
+      <c r="U190">
+        <v>0.9555840000000001</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP190" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR190">
+        <v>7</v>
+      </c>
+      <c r="AU190">
+        <v>52</v>
+      </c>
+      <c r="AV190">
+        <v>2.93</v>
+      </c>
+      <c r="AW190">
+        <v>623.84583333333342</v>
+      </c>
+      <c r="AX190" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY190" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ190" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB190">
+        <v>200</v>
+      </c>
+      <c r="BC190">
+        <v>1</v>
+      </c>
+      <c r="BE190">
+        <v>3.43</v>
+      </c>
+      <c r="BF190">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191">
+        <v>189</v>
+      </c>
+      <c r="E191">
+        <v>189</v>
+      </c>
+      <c r="F191" t="s">
+        <v>104</v>
+      </c>
+      <c r="G191" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191" s="2">
+        <v>44364</v>
+      </c>
+      <c r="I191" t="s">
+        <v>71</v>
+      </c>
+      <c r="J191">
+        <v>140</v>
+      </c>
+      <c r="K191">
+        <v>2.1</v>
+      </c>
+      <c r="L191">
+        <v>98.5</v>
+      </c>
+      <c r="M191" s="2">
+        <v>44349</v>
+      </c>
+      <c r="N191" t="s">
+        <v>72</v>
+      </c>
+      <c r="O191">
+        <v>1.009665304696193</v>
+      </c>
+      <c r="P191">
+        <v>1.1010194667293569</v>
+      </c>
+      <c r="Q191">
+        <v>286.3922672231036</v>
+      </c>
+      <c r="R191">
+        <v>2.8487411080861951</v>
+      </c>
+      <c r="S191">
+        <v>23.40135892678401</v>
+      </c>
+      <c r="T191">
+        <v>1.3565879999999999</v>
+      </c>
+      <c r="U191">
+        <v>4.9741559999999997E-2</v>
+      </c>
+      <c r="V191">
+        <v>5</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS191">
+        <v>200</v>
+      </c>
+      <c r="AT191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>3.43</v>
+      </c>
+      <c r="AW191">
+        <v>686</v>
+      </c>
+      <c r="AX191" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY191" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ191" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB191">
+        <v>200</v>
+      </c>
+      <c r="BC191">
+        <v>1</v>
+      </c>
+      <c r="BE191">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="BF191">
+        <v>877.99999999999989</v>
+      </c>
+    </row>
+    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192">
+        <v>190</v>
+      </c>
+      <c r="E192">
+        <v>190</v>
+      </c>
+      <c r="F192" t="s">
+        <v>104</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192" s="2">
+        <v>44364</v>
+      </c>
+      <c r="I192" t="s">
+        <v>83</v>
+      </c>
+      <c r="J192">
+        <v>75</v>
+      </c>
+      <c r="K192">
+        <v>1.88</v>
+      </c>
+      <c r="L192">
+        <v>97.493333333333339</v>
+      </c>
+      <c r="M192" s="2">
+        <v>44315</v>
+      </c>
+      <c r="N192" t="s">
+        <v>72</v>
+      </c>
+      <c r="O192">
+        <v>0.99370599539650639</v>
+      </c>
+      <c r="P192">
+        <v>1.15029115200062</v>
+      </c>
+      <c r="Q192">
+        <v>313.88750391425862</v>
+      </c>
+      <c r="R192">
+        <v>0.45636423926209702</v>
+      </c>
+      <c r="S192">
+        <v>10.607274732208751</v>
+      </c>
+      <c r="T192">
+        <v>1.8429120000000001</v>
+      </c>
+      <c r="U192">
+        <v>9.2145600000000022E-2</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS192">
+        <v>100</v>
+      </c>
+      <c r="AT192">
+        <v>1</v>
+      </c>
+      <c r="AV192">
+        <v>3.43</v>
+      </c>
+      <c r="AW192">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" t="s">
+        <v>80</v>
+      </c>
+      <c r="D193">
+        <v>191</v>
+      </c>
+      <c r="E193">
+        <v>191</v>
+      </c>
+      <c r="F193" t="s">
+        <v>104</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" s="2">
+        <v>44364</v>
+      </c>
+      <c r="I193" t="s">
+        <v>83</v>
+      </c>
+      <c r="J193">
+        <v>100</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>96</v>
+      </c>
+      <c r="M193" s="2">
+        <v>44349</v>
+      </c>
+      <c r="N193" t="s">
+        <v>72</v>
+      </c>
+      <c r="O193">
+        <v>0.89955698491910008</v>
+      </c>
+      <c r="P193">
+        <v>1.0169793825287869</v>
+      </c>
+      <c r="Q193">
+        <v>207.3523118058975</v>
+      </c>
+      <c r="R193">
+        <v>0.49627022032061602</v>
+      </c>
+      <c r="S193">
+        <v>16.699032602200241</v>
+      </c>
+      <c r="T193">
+        <v>2.2325400000000002</v>
+      </c>
+      <c r="U193">
+        <v>8.0371440000000002E-2</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP193" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS193">
+        <v>100</v>
+      </c>
+      <c r="AT193">
+        <v>1</v>
+      </c>
+      <c r="AV193">
+        <v>3.43</v>
+      </c>
+      <c r="AW193">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:BO193"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>